--- a/01_signal_production/Data_Generation_woRHC/Data_5K_13_6_TeV/lq_ta/Cross_Sections/XS_Matriz.xlsx
+++ b/01_signal_production/Data_Generation_woRHC/Data_5K_13_6_TeV/lq_ta/Cross_Sections/XS_Matriz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,50 +436,35 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1750</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>2250</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>1750</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>2500</t>
         </is>
@@ -488,297 +473,1597 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.0625</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.974</v>
+        <v>7.521000000000001e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06605</v>
+        <v>1.697e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006987</v>
+        <v>4.621e-06</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001195</v>
+        <v>1.424e-06</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0002725</v>
+        <v>4.792e-07</v>
       </c>
       <c r="G2" t="n">
-        <v>7.409e-05</v>
+        <v>1.732e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>2.288e-05</v>
-      </c>
-      <c r="I2" t="n">
-        <v>7.652000000000001e-06</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.756e-06</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.044e-06</v>
+        <v>6.502e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.856</v>
+        <v>0.0002984</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2633</v>
+        <v>6.818e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0277</v>
+        <v>1.843e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004767</v>
+        <v>5.747e-06</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00109</v>
+        <v>1.92e-06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0002976</v>
+        <v>6.907e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>9.134e-05</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.065e-05</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.106e-05</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.18e-06</v>
+        <v>2.638e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.1875</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.4</v>
+        <v>0.0006757</v>
       </c>
       <c r="C4" t="n">
-        <v>1.054</v>
+        <v>0.0001538</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1106</v>
+        <v>4.192e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01906</v>
+        <v>1.285e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004373</v>
+        <v>4.337e-06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001193</v>
+        <v>1.558e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0003648</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.0001234</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.416e-05</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.675e-05</v>
+        <v>5.848e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>70.8</v>
+        <v>0.001196</v>
       </c>
       <c r="C5" t="n">
-        <v>2.388</v>
+        <v>0.0002738</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2496</v>
+        <v>7.423e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04321</v>
+        <v>2.285e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>0.009816</v>
+        <v>7.696999999999999e-06</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002664</v>
+        <v>2.789e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008234</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.0002787</v>
-      </c>
-      <c r="J5" t="n">
-        <v>9.979000000000001e-05</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.765e-05</v>
+        <v>1.038e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.3125</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>125.6</v>
+        <v>0.001859</v>
       </c>
       <c r="C6" t="n">
-        <v>4.207</v>
+        <v>0.0004183</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4455</v>
+        <v>0.0001156</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07659000000000001</v>
+        <v>3.559e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01748</v>
+        <v>1.206e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004754</v>
+        <v>4.322e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001468</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.0004931</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.0001772</v>
-      </c>
-      <c r="K6" t="n">
-        <v>6.677999999999999e-05</v>
+        <v>1.636e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>196.9</v>
+        <v>0.002674</v>
       </c>
       <c r="C7" t="n">
-        <v>6.598</v>
+        <v>0.0006117</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6931</v>
+        <v>0.000167</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1199</v>
+        <v>5.146e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02731</v>
+        <v>1.723e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00744</v>
+        <v>6.221e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002292</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.0007678</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.0002756</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.0001049</v>
+        <v>2.352e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>284.7</v>
+        <v>0.003627</v>
       </c>
       <c r="C8" t="n">
-        <v>9.494999999999999</v>
+        <v>0.0008418</v>
       </c>
       <c r="D8" t="n">
-        <v>1.002</v>
+        <v>0.0002294</v>
       </c>
       <c r="E8" t="n">
-        <v>0.172</v>
+        <v>6.957e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03944</v>
+        <v>2.358e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01071</v>
+        <v>8.512000000000001e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0033</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.001109</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.0003976</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.0001497</v>
+        <v>3.188e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.004807</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.001093</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.000293</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9.093e-05</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.088e-05</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.103e-05</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.176e-06</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>0.5625</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.006103</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.001373</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0003743</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0001152</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.895e-05</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.397e-05</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5.263e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>0.625</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.00746</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001703</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0004628</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0001431</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4.732e-05</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.757e-05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6.536e-06</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>0.6875</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.009032</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.002054</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0005620999999999999</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0001726</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5.816e-05</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.084e-05</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7.956e-06</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.01086</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.002457</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0006744</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0002047</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6.907e-05</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.49e-05</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9.436000000000001e-06</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>0.8125</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.01267</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.002871</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0007822</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0002402</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8.159e-05</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.94e-05</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.1e-05</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.01473</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.003328</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.000901</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0002785</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9.454e-05</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.404e-05</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.272e-05</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>0.9375</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.01682</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.003829</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.001043</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.000323</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0001076</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.884e-05</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.478e-05</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.01927</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.004296</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.001177</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0003642</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0001239</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4.46e-05</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.66e-05</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>1.0625</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.02167</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.004967</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.001333</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0004129</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0001382</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5.006e-05</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.883e-05</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>1.125</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.02404</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.005515</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.001508</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0004641</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0001554</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5.594e-05</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.128e-05</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>1.1875</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.02695</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.006226</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.001669</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0005194</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0001716</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6.206e-05</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.363e-05</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.02994</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.006782</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.001853</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0005731</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0001921</v>
+      </c>
+      <c r="G21" t="n">
+        <v>6.909e-05</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.613e-05</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>1.3125</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.03278</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.007513</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.002047</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0006292</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.000213</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7.642e-05</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.894e-05</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>1.375</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.03632</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.008266000000000001</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.00225</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0006916</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0002311</v>
+      </c>
+      <c r="G23" t="n">
+        <v>8.296000000000001e-05</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.192e-05</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>1.4375</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.03943</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.009025999999999999</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.002436</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0007525</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0002544</v>
+      </c>
+      <c r="G24" t="n">
+        <v>9.13e-05</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.428e-05</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.04302</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.009816</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.002656</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0008249</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0002759</v>
+      </c>
+      <c r="G25" t="n">
+        <v>9.948e-05</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.735e-05</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>1.5625</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.04659</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.01066</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.002921</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0008961</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.000299</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0001084</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.102e-05</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>1.625</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0507</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01157</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.003163</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0009565</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0003242</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0001171</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4.41e-05</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>1.6875</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0543</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01249</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.003382</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.001039</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0003473</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0001266</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4.741e-05</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.05839</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0134</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.003635</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.001116</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.000379</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0001362</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5.094e-05</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>1.8125</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.06315</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.01434</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.003892</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.001205</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0004034</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0001448</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5.527e-05</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>1.875</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.06710000000000001</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0153</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.004159</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.001288</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0004316</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0001563</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5.865e-05</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>1.9375</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.07174999999999999</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.01637</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.004455</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.001372</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0004614</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0001654</v>
+      </c>
+      <c r="H32" t="n">
+        <v>6.222e-05</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.07597</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01741</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.004769</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.001457</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0004855</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0001772</v>
+      </c>
+      <c r="H33" t="n">
+        <v>6.685e-05</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>2.0625</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.08137999999999999</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.01853</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.005059</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.001559</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0005216</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0001878</v>
+      </c>
+      <c r="H34" t="n">
+        <v>7.087e-05</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2.125</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.0864</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.01985</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.00537</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.001652</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0005576999999999999</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0001994</v>
+      </c>
+      <c r="H35" t="n">
+        <v>7.556e-05</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2.1875</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.09196</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.02095</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.005585</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.001757</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0005894</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0002112</v>
+      </c>
+      <c r="H36" t="n">
+        <v>8.055000000000001e-05</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.09729</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.02212</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.006009</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.001855</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0006246</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0002246</v>
+      </c>
+      <c r="H37" t="n">
+        <v>8.443e-05</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>2.3125</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.1022</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.02331</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.006354</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.001965</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0006579999999999999</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0002353</v>
+      </c>
+      <c r="H38" t="n">
+        <v>8.941999999999999e-05</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>2.375</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.1065</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.02455</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.006645</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.002083</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0006899</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0002499</v>
+      </c>
+      <c r="H39" t="n">
+        <v>9.420999999999999e-05</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>2.4375</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.1137</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.02584</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.007015</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.002182</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0007318</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0002641</v>
+      </c>
+      <c r="H40" t="n">
+        <v>9.945e-05</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.1203</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.02727</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.007422</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.002288</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0007703</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0002803</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.000104</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>2.5625</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.1259</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.02875</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.007825</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.002409</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0008089</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0002891</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.0001083</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>2.625</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.1315</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.03019</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.008135999999999999</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.002521</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.00085</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0003057</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.0001154</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>2.6875</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.1385</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.03155</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.008557</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.002648</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.000887</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.0003198</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.0001216</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.1446</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.03274</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.009010000000000001</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.002779</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0009312</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0003326</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.0001255</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>2.8125</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.03433</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.009412999999999999</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.002908</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.000971</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0003506</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.0001328</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>2.875</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.1575</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.03593</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.009833</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.003028</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.001018</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0003627</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.0001382</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>2.9375</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.1651</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.03782</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.01022</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.003147</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.001061</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.000383</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.0001444</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.1718</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.0393</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.01073</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.003287</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.001112</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0003993</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0001507</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>3.0625</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.1806</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.04119</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.01117</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.003417</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.001161</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.000416</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.0001556</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>3.125</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.1872</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.04267</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.01156</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.003622</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.001212</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0004278</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.0001631</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>3.1875</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.1935</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.04414</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.01211</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.003699</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.00125</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.000449</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.0001681</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.2005</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.04647</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.01261</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.003861</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.001309</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.000468</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.0001763</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>3.3125</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.2096</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.04777</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.0131</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.004032</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.001358</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.000486</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.0001839</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>3.375</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.2166</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.04936</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.01357</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.004193</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.001401</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.0005053</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.0001898</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>3.4375</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.2268</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.05166</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.01407</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.004355</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.001449</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.0005296</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.0001987</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
           <t>3.5</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>384.3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>12.94</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.365</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.2351</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.05375</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.01445</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.00448</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.001513</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.0005415</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.0002051</v>
+      <c r="B57" t="n">
+        <v>0.2333</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.05373</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.01446</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.004468</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.001512</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.0005438</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.0002058</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.06267</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.01398</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.003873</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.00118</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.0003951</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.0001438</v>
+      </c>
+      <c r="H58" t="n">
+        <v>5.373e-05</v>
       </c>
     </row>
   </sheetData>
